--- a/ALPHA.xlsx
+++ b/ALPHA.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,12 +142,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -162,8 +168,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -172,9 +179,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF800000"/>
+      <color rgb="FFFF99FF"/>
+      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFF99"/>
       <color rgb="FF660066"/>
-      <color rgb="FFFF99FF"/>
-      <color rgb="FFFFFF99"/>
       <color rgb="FFCC9900"/>
       <color rgb="FF003300"/>
       <color rgb="FF00CC00"/>
@@ -704,6 +713,506 @@
               </a:glow>
             </a:effectLst>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>440121</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>32348</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5672964" cy="1215427"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3183321" y="718148"/>
+          <a:ext cx="5672964" cy="1215427"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="5400" b="1" cap="none" spc="0">
+              <a:ln w="1905"/>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:shade val="20000"/>
+                      <a:satMod val="200000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="78000">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="90000"/>
+                      <a:shade val="89000"/>
+                      <a:satMod val="220000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="12000"/>
+                      <a:satMod val="255000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="69850" dist="43180" dir="5400000">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:latin typeface="Baskerville Old Face" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="1" cap="none" spc="0">
+              <a:ln w="1905"/>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:shade val="20000"/>
+                      <a:satMod val="200000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="78000">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="90000"/>
+                      <a:shade val="89000"/>
+                      <a:satMod val="220000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="12000"/>
+                      <a:satMod val="255000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="69850" dist="43180" dir="5400000">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:latin typeface="Baskerville Old Face" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>How</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="1905"/>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:shade val="20000"/>
+                      <a:satMod val="200000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="78000">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="90000"/>
+                      <a:shade val="89000"/>
+                      <a:satMod val="220000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="12000"/>
+                      <a:satMod val="255000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="69850" dist="43180" dir="5400000">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:latin typeface="Baskerville Old Face" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> to Play</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="5400" b="1" cap="none" spc="0">
+              <a:ln w="1905"/>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:shade val="20000"/>
+                      <a:satMod val="200000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="78000">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="90000"/>
+                      <a:shade val="89000"/>
+                      <a:satMod val="220000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="12000"/>
+                      <a:satMod val="255000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="69850" dist="43180" dir="5400000">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:latin typeface="Baskerville Old Face" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>～</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165697</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4848224" cy="5177828"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3533776" y="1708747"/>
+          <a:ext cx="4848224" cy="5177828"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1" i="1" cap="none" spc="0">
+              <a:ln w="10541" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="88000"/>
+                    <a:satMod val="110000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="40000"/>
+                      <a:satMod val="250000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="9000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="52000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="20000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="79000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="52000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="40000"/>
+                      <a:satMod val="250000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ Ｐ明朝" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐ明朝" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1" i="1" cap="none" spc="0">
+              <a:ln w="10541" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="800000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ Ｐ明朝" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐ明朝" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>あなたは世界中を渡り歩く探検家。　</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="2000" b="1" i="1" cap="none" spc="0">
+            <a:ln w="10541" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ Ｐ明朝" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐ明朝" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1" i="1" cap="none" spc="0">
+              <a:ln w="10541" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="800000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ Ｐ明朝" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐ明朝" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　ある日あなたは訪れた遺跡に不思議な暗号で記された文章を発見した。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="2000" b="1" i="1" cap="none" spc="0">
+            <a:ln w="10541" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ Ｐ明朝" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐ明朝" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1" i="1" cap="none" spc="0">
+              <a:ln w="10541" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="800000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ Ｐ明朝" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐ明朝" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　魔術師 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1" i="1" cap="none" spc="0">
+              <a:ln w="10541" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="800000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ Ｐ明朝" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐ明朝" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1" i="1" cap="none" spc="0">
+              <a:ln w="10541" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="800000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ Ｐ明朝" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐ明朝" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>阿部貴義</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1" i="1" cap="none" spc="0">
+              <a:ln w="10541" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="800000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ Ｐ明朝" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐ明朝" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>' </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1" i="1" cap="none" spc="0">
+              <a:ln w="10541" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="800000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ Ｐ明朝" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐ明朝" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>と、とある地域を示す座標。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="2000" b="1" i="1" cap="none" spc="0">
+            <a:ln w="10541" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ Ｐ明朝" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐ明朝" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1" i="1" cap="none" spc="0">
+              <a:ln w="10541" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="800000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ Ｐ明朝" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐ明朝" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　文章を解読したあなたはこの文章の意味を追うため、示された地点へと向かう。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="2000" b="1" i="1" cap="none" spc="0">
+            <a:ln w="10541" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ Ｐ明朝" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐ明朝" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1" i="1" cap="none" spc="0">
+              <a:ln w="10541" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="800000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ Ｐ明朝" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐ明朝" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　しかし、そこにはあなたを黄泉へと誘う、古代の魔術師の罠が待ち受けていた・・・</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1001,7 +1510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E73" workbookViewId="0">
+    <sheetView topLeftCell="E43" workbookViewId="0">
       <selection activeCell="V80" sqref="V80"/>
     </sheetView>
   </sheetViews>
@@ -1147,14 +1656,498 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C3:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ALPHA.xlsx
+++ b/ALPHA.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -121,6 +122,113 @@
     <t>Z</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ゲームの目的</t>
+    <rPh sb="4" eb="6">
+      <t>モクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージが始まると不思議な絵柄の石版が並びます。</t>
+    <rPh sb="5" eb="6">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>フシギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>エガラ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セキバン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この石版はアルファベット27種と同じ27種があり、あなたは記号の羅列に隠された文章を見つけなければなりません。</t>
+    <rPh sb="2" eb="4">
+      <t>セキバン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ラレツ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ブンショウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石版にアルファベットを当てはめると、対応した同じ石版はすべてアルファベットのカードに変化します。</t>
+    <rPh sb="0" eb="2">
+      <t>セキバン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セキバン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てをアルファベットに変え、隠された文章を暴き出し、魔術師'アベイスター=タカヨシー' に挑戦しましょう。</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ブンショウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アバ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>マジュツシ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>チョウセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -179,10 +287,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFF99"/>
       <color rgb="FF800000"/>
       <color rgb="FFFF99FF"/>
-      <color rgb="FFFF0000"/>
-      <color rgb="FFFFFF99"/>
       <color rgb="FF660066"/>
       <color rgb="FFCC9900"/>
       <color rgb="FF003300"/>
@@ -1212,6 +1320,880 @@
               <a:ea typeface="ＭＳ Ｐ明朝" pitchFamily="18" charset="-128"/>
             </a:rPr>
             <a:t>　しかし、そこにはあなたを黄泉へと誘う、古代の魔術師の罠が待ち受けていた・・・</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>354806</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60923</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5463099" cy="2793072"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2412206" y="3147023"/>
+          <a:ext cx="5463099" cy="2793072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="soft" dir="tl">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d contourW="25400" prstMaterial="matte">
+            <a:bevelT w="25400" h="55880" prst="artDeco"/>
+            <a:contourClr>
+              <a:schemeClr val="accent2">
+                <a:tint val="20000"/>
+              </a:schemeClr>
+            </a:contourClr>
+          </a:sp3d>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="0" i="1" cap="none" spc="50">
+              <a:ln w="11430">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="76200" dist="50800" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>ステージが始まると不思議な絵柄の石版が並びます。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" cap="none" spc="50">
+            <a:ln w="11430">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="76200" dist="50800" dir="5400000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="0" i="1" cap="none" spc="50">
+              <a:ln w="11430">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="76200" dist="50800" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>この</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="0" i="1" cap="none" spc="50">
+              <a:ln w="11430">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="76200" dist="50800" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>石版はアルファベットと同じく</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" cap="none" spc="50">
+              <a:ln w="11430">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="76200" dist="50800" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>27</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="0" i="1" cap="none" spc="50">
+              <a:ln w="11430">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="76200" dist="50800" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>種</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="0" i="1" cap="none" spc="50">
+              <a:ln w="11430">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="76200" dist="50800" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>あり、</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" cap="none" spc="50">
+            <a:ln w="11430">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="76200" dist="50800" dir="5400000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="0" i="1" cap="none" spc="50">
+              <a:ln w="11430">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="76200" dist="50800" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>あなたは記号の羅列に隠された文章を</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" cap="none" spc="50">
+            <a:ln w="11430">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="76200" dist="50800" dir="5400000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="0" i="1" cap="none" spc="50">
+              <a:ln w="11430">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="76200" dist="50800" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>見つけなければなりません。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" cap="none" spc="50">
+            <a:ln w="11430">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="76200" dist="50800" dir="5400000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="0" i="1" cap="none" spc="50">
+              <a:ln w="11430">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="76200" dist="50800" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>石版にアルファベットを当てはめると、</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" cap="none" spc="50">
+            <a:ln w="11430">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="76200" dist="50800" dir="5400000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="0" i="1" cap="none" spc="50">
+              <a:ln w="11430">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="76200" dist="50800" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>対応した石版はすべてアルファベットのカードに</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" cap="none" spc="50">
+            <a:ln w="11430">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="76200" dist="50800" dir="5400000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="0" i="1" cap="none" spc="50">
+              <a:ln w="11430">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="76200" dist="50800" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>変化します。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" cap="none" spc="50">
+            <a:ln w="11430">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="76200" dist="50800" dir="5400000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="0" i="1" cap="none" spc="50">
+              <a:ln w="11430">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="76200" dist="50800" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>全てをアルファベットに変え、隠された文章を暴き出し、</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" cap="none" spc="50">
+            <a:ln w="11430">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="76200" dist="50800" dir="5400000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="0" i="1" cap="none" spc="50">
+              <a:ln w="11430">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="76200" dist="50800" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>魔術師</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" cap="none" spc="50">
+              <a:ln w="11430">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="76200" dist="50800" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="0" i="1" cap="none" spc="50">
+              <a:ln w="11430">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="76200" dist="50800" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>アベイスター</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" cap="none" spc="50">
+              <a:ln w="11430">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="76200" dist="50800" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="0" i="1" cap="none" spc="50">
+              <a:ln w="11430">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="76200" dist="50800" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>タカヨシー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" cap="none" spc="50">
+              <a:ln w="11430">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="76200" dist="50800" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="0" i="1" cap="none" spc="50">
+              <a:ln w="11430">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="76200" dist="50800" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="65000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>に挑戦しましょう。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" cap="none" spc="50">
+            <a:ln w="11430">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="76200" dist="50800" dir="5400000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>470045</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>51398</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4355809" cy="992579"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3213245" y="1937348"/>
+          <a:ext cx="4355809" cy="992579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="5400" b="1" cap="none" spc="0">
+              <a:ln w="17780" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000"/>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGS行書体" pitchFamily="66" charset="-128"/>
+              <a:ea typeface="HGS行書体" pitchFamily="66" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲイムの目的</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>546696</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>108547</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1282104" cy="759310"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8090496" y="3708997"/>
+          <a:ext cx="1282104" cy="759310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="brightRoom" dir="t"/>
+          </a:scene3d>
+          <a:sp3d contourW="6350" prstMaterial="plastic">
+            <a:bevelT w="20320" h="20320" prst="angle"/>
+            <a:contourClr>
+              <a:schemeClr val="accent1">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:hueMod val="100000"/>
+                <a:satMod val="100000"/>
+              </a:schemeClr>
+            </a:contourClr>
+          </a:sp3d>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1" cap="all" spc="0">
+              <a:ln/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="19685" dist="12700" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="130000"/>
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+                <a:reflection blurRad="10000" stA="55000" endPos="48000" dist="500" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>記号　</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="2000" b="1" cap="all" spc="0">
+            <a:ln/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="19685" dist="12700" dir="5400000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="130000"/>
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+              <a:reflection blurRad="10000" stA="55000" endPos="48000" dist="500" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1" cap="all" spc="0">
+              <a:ln/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="19685" dist="12700" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="130000"/>
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+                <a:reflection blurRad="10000" stA="55000" endPos="48000" dist="500" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Ａｌｐｈａ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1658,8 +2640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2153,13 +3135,506 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:O33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N23" sqref="L23:N24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>